--- a/SuRGE_Sharepoint/data/CIN/CH4_214_Lake of the woods/dataSheets/surgeData214.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_214_Lake of the woods/dataSheets/surgeData214.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_214_Lake of the woods/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="485" documentId="8_{E0AD69F7-02A7-41FF-B8A5-9C691E3BD127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08628290-5BCC-4F3C-B0EE-7A98AAD9F1CD}"/>
+  <xr:revisionPtr revIDLastSave="487" documentId="8_{E0AD69F7-02A7-41FF-B8A5-9C691E3BD127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D48AC3F-7159-470D-A46A-A0969C34D082}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="234">
   <si>
     <t>lake.id</t>
   </si>
@@ -728,9 +728,6 @@
     <t>SG230391</t>
   </si>
   <si>
-    <t>"Sample lost vial cracked"</t>
-  </si>
-  <si>
     <t>SG230383</t>
   </si>
   <si>
@@ -738,9 +735,6 @@
   </si>
   <si>
     <t>SG230385</t>
-  </si>
-  <si>
-    <t>SG230386</t>
   </si>
   <si>
     <t>SG230387</t>
@@ -1424,10 +1418,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1465,7 +1463,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1571,7 +1569,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1713,7 +1711,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1723,79 +1721,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J18" sqref="J18"/>
+      <selection pane="topRight" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.26171875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26171875" customWidth="1"/>
+    <col min="5" max="5" width="13.68359375" customWidth="1"/>
+    <col min="6" max="7" width="13.578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.26171875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.68359375" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.68359375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.26171875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.26171875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.28515625" customWidth="1"/>
-    <col min="30" max="30" width="10.28515625" customWidth="1"/>
-    <col min="31" max="31" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.26171875" customWidth="1"/>
+    <col min="30" max="30" width="10.26171875" customWidth="1"/>
+    <col min="31" max="31" width="6.26171875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.26171875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.68359375" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.26171875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.68359375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.26171875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.41796875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.68359375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.68359375" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.28515625" customWidth="1"/>
-    <col min="51" max="51" width="8.28515625" customWidth="1"/>
-    <col min="52" max="52" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="23.28515625" customWidth="1"/>
-    <col min="65" max="65" width="14.85546875" customWidth="1"/>
-    <col min="66" max="66" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.68359375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.26171875" customWidth="1"/>
+    <col min="51" max="51" width="8.26171875" customWidth="1"/>
+    <col min="52" max="52" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.41796875" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.26171875" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="9.41796875" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.26171875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.26171875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.68359375" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.26171875" customWidth="1"/>
+    <col min="65" max="65" width="14.83984375" customWidth="1"/>
+    <col min="66" max="66" width="8.68359375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.578125" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.26171875" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="18" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="33" t="s">
         <v>54</v>
       </c>
@@ -1887,7 +1885,7 @@
       <c r="BY1" s="32"/>
       <c r="BZ1" s="32"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -2123,7 +2121,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="25" t="s">
         <v>197</v>
       </c>
@@ -2251,7 +2249,7 @@
         <v>0.73473379629629632</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="25" t="s">
         <v>197</v>
       </c>
@@ -2349,7 +2347,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="25" t="s">
         <v>197</v>
       </c>
@@ -2447,7 +2445,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="25" t="s">
         <v>197</v>
       </c>
@@ -2554,7 +2552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="25" t="s">
         <v>197</v>
       </c>
@@ -2661,7 +2659,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="25" t="s">
         <v>197</v>
       </c>
@@ -2768,7 +2766,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="25" t="s">
         <v>197</v>
       </c>
@@ -2872,7 +2870,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="25" t="s">
         <v>197</v>
       </c>
@@ -2970,7 +2968,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="25" t="s">
         <v>197</v>
       </c>
@@ -3074,7 +3072,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="25" t="s">
         <v>197</v>
       </c>
@@ -3175,7 +3173,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="25" t="s">
         <v>197</v>
       </c>
@@ -3279,7 +3277,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="25" t="s">
         <v>197</v>
       </c>
@@ -3380,7 +3378,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="25" t="s">
         <v>197</v>
       </c>
@@ -3481,7 +3479,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="25" t="s">
         <v>197</v>
       </c>
@@ -3582,7 +3580,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="25" t="s">
         <v>197</v>
       </c>
@@ -3680,7 +3678,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="25" t="s">
         <v>197</v>
       </c>
@@ -3694,7 +3692,7 @@
       <c r="I18" s="26"/>
       <c r="U18" s="27"/>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="25" t="s">
         <v>197</v>
       </c>
@@ -3705,7 +3703,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="25" t="s">
         <v>197</v>
       </c>
@@ -3739,14 +3737,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.7109375" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.68359375" customWidth="1"/>
+    <col min="3" max="3" width="49.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -3757,7 +3755,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3768,7 +3766,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3779,7 +3777,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -3790,7 +3788,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3801,7 +3799,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3812,7 +3810,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3823,7 +3821,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3834,7 +3832,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3845,7 +3843,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3856,7 +3854,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3867,7 +3865,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3878,7 +3876,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3889,7 +3887,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3897,7 +3895,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3908,7 +3906,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3916,7 +3914,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3927,7 +3925,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3935,7 +3933,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" t="s">
         <v>165</v>
       </c>
@@ -3946,7 +3944,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" t="s">
         <v>166</v>
       </c>
@@ -3954,7 +3952,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3965,7 +3963,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3976,7 +3974,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3987,7 +3985,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -3998,7 +3996,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -4009,7 +4007,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" t="s">
         <v>161</v>
       </c>
@@ -4020,7 +4018,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" t="s">
         <v>162</v>
       </c>
@@ -4028,7 +4026,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -4039,7 +4037,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -4050,7 +4048,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -4061,7 +4059,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -4072,7 +4070,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -4083,7 +4081,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -4094,7 +4092,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" t="s">
         <v>148</v>
       </c>
@@ -4105,7 +4103,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" t="s">
         <v>159</v>
       </c>
@@ -4116,7 +4114,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -4127,7 +4125,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -4135,7 +4133,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -4143,7 +4141,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -4151,7 +4149,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -4159,7 +4157,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -4167,7 +4165,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -4175,7 +4173,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -4183,7 +4181,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" t="s">
         <v>154</v>
       </c>
@@ -4191,7 +4189,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -4199,7 +4197,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" t="s">
         <v>140</v>
       </c>
@@ -4207,7 +4205,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -4215,7 +4213,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" t="s">
         <v>150</v>
       </c>
@@ -4223,7 +4221,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" t="s">
         <v>168</v>
       </c>
@@ -4231,7 +4229,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" t="s">
         <v>142</v>
       </c>
@@ -4239,7 +4237,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -4250,7 +4248,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -4261,7 +4259,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -4272,7 +4270,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>32</v>
       </c>
@@ -4283,7 +4281,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -4294,7 +4292,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>151</v>
       </c>
@@ -4305,7 +4303,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" t="s">
         <v>160</v>
       </c>
@@ -4316,7 +4314,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -4327,7 +4325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -4335,7 +4333,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -4343,7 +4341,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -4351,7 +4349,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -4359,7 +4357,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" t="s">
         <v>152</v>
       </c>
@@ -4367,7 +4365,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" t="s">
         <v>163</v>
       </c>
@@ -4375,7 +4373,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" t="s">
         <v>44</v>
       </c>
@@ -4383,7 +4381,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -4391,7 +4389,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" t="s">
         <v>144</v>
       </c>
@@ -4399,7 +4397,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" t="s">
         <v>145</v>
       </c>
@@ -4407,7 +4405,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" t="s">
         <v>146</v>
       </c>
@@ -4415,7 +4413,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>153</v>
       </c>
@@ -4423,7 +4421,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>164</v>
       </c>
@@ -4431,7 +4429,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" t="s">
         <v>147</v>
       </c>
@@ -4439,7 +4437,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -4450,7 +4448,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" t="s">
         <v>50</v>
       </c>
@@ -4461,7 +4459,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" t="s">
         <v>51</v>
       </c>
@@ -4472,7 +4470,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" t="s">
         <v>52</v>
       </c>
@@ -4483,7 +4481,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" t="s">
         <v>53</v>
       </c>
@@ -4494,7 +4492,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" t="s">
         <v>157</v>
       </c>
@@ -4505,7 +4503,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" t="s">
         <v>158</v>
       </c>
@@ -4523,23 +4521,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081A6BD0-DB1A-406D-A526-8D337C57DAFE}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="25"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.26171875" style="25"/>
+    <col min="3" max="3" width="15.41796875" customWidth="1"/>
+    <col min="5" max="5" width="13.26171875" customWidth="1"/>
+    <col min="7" max="7" width="12.26171875" customWidth="1"/>
+    <col min="9" max="9" width="14.26171875" customWidth="1"/>
+    <col min="10" max="10" width="15.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="37" t="s">
         <v>59</v>
       </c>
@@ -4555,7 +4553,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -4589,7 +4587,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="25" t="s">
         <v>197</v>
       </c>
@@ -4600,7 +4598,7 @@
         <v>0.1</v>
       </c>
       <c r="D3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E3">
         <v>28.7</v>
@@ -4618,7 +4616,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="25" t="s">
         <v>197</v>
       </c>
@@ -4629,7 +4627,7 @@
         <v>0.1</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E4">
         <v>28.3</v>
@@ -4647,7 +4645,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="25" t="s">
         <v>197</v>
       </c>
@@ -4658,7 +4656,7 @@
         <v>0.1</v>
       </c>
       <c r="D5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E5">
         <v>28.5</v>
@@ -4676,7 +4674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="25" t="s">
         <v>197</v>
       </c>
@@ -4687,13 +4685,10 @@
         <v>3.8</v>
       </c>
       <c r="D6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E6">
-        <v>27.9</v>
-      </c>
-      <c r="F6" t="s">
-        <v>229</v>
+        <v>27.4</v>
       </c>
       <c r="G6">
         <v>115</v>
@@ -4708,7 +4703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="25" t="s">
         <v>197</v>
       </c>
@@ -4719,10 +4714,10 @@
         <v>3.8</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E7">
-        <v>27.4</v>
+        <v>28.2</v>
       </c>
       <c r="G7">
         <v>115</v>
@@ -4734,35 +4729,6 @@
         <v>736.6</v>
       </c>
       <c r="J7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>197</v>
-      </c>
-      <c r="B8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C8">
-        <v>3.8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E8">
-        <v>28.2</v>
-      </c>
-      <c r="G8">
-        <v>115</v>
-      </c>
-      <c r="H8">
-        <v>25</v>
-      </c>
-      <c r="I8">
-        <v>736.6</v>
-      </c>
-      <c r="J8">
         <v>25</v>
       </c>
     </row>
@@ -4783,14 +4749,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.5703125" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.578125" customWidth="1"/>
+    <col min="3" max="3" width="49.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -4801,7 +4767,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4812,7 +4778,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4823,7 +4789,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
@@ -4834,7 +4800,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
@@ -4845,7 +4811,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="20" t="s">
         <v>47</v>
       </c>
@@ -4856,7 +4822,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="21" t="s">
         <v>48</v>
       </c>
@@ -4864,7 +4830,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="20" t="s">
         <v>123</v>
       </c>
@@ -4875,7 +4841,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="20" t="s">
         <v>124</v>
       </c>
@@ -4886,7 +4852,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="22" t="s">
         <v>125</v>
       </c>
@@ -4912,45 +4878,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5425,8 +5354,45 @@
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5438,6 +5404,37 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35DBF6D9-3623-4FAC-B629-E83BF488762D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="8b03727f-4454-4722-b3e6-018d8dcaf2fd"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -5449,16 +5446,4 @@
     <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35DBF6D9-3623-4FAC-B629-E83BF488762D}"/>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/SuRGE_Sharepoint/data/CIN/CH4_214_Lake of the woods/dataSheets/surgeData214.xlsx
+++ b/SuRGE_Sharepoint/data/CIN/CH4_214_Lake of the woods/dataSheets/surgeData214.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa.sharepoint.com/sites/SuRGE/Shared Documents/data/CIN/CH4_214_Lake of the woods/dataSheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usepa-my.sharepoint.com/personal/beaulieu_jake_epa_gov/Documents/gitRepository/SuRGE/SuRGE_Sharepoint/data/CIN/CH4_214_Lake of the woods/dataSheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="487" documentId="8_{E0AD69F7-02A7-41FF-B8A5-9C691E3BD127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D48AC3F-7159-470D-A46A-A0969C34D082}"/>
+  <xr:revisionPtr revIDLastSave="488" documentId="8_{E0AD69F7-02A7-41FF-B8A5-9C691E3BD127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F47C8E5-AA14-4DD1-99DE-B0B0B43467F7}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="34560" windowHeight="13560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -1418,10 +1418,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -1721,79 +1717,79 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BZ20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="AZ1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="BP17" sqref="BP17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.26171875" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26171875" customWidth="1"/>
-    <col min="5" max="5" width="13.68359375" customWidth="1"/>
-    <col min="6" max="7" width="13.578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.41796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.41796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.41796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.26171875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.41796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.68359375" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="12.26171875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="10.26171875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.68359375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.21875" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.21875" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="8" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="6.26171875" customWidth="1"/>
-    <col min="30" max="30" width="10.26171875" customWidth="1"/>
-    <col min="31" max="31" width="6.26171875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.26171875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="6.21875" customWidth="1"/>
+    <col min="30" max="30" width="10.21875" customWidth="1"/>
+    <col min="31" max="31" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="11" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.26171875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="7.68359375" bestFit="1" customWidth="1"/>
-    <col min="36" max="37" width="9.26171875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="16.26171875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="15.68359375" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.26171875" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="12.68359375" bestFit="1" customWidth="1"/>
-    <col min="42" max="43" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="13.68359375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="7.41796875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="7.68359375" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="8.68359375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="43" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="5" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="5.68359375" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13.26171875" customWidth="1"/>
-    <col min="51" max="51" width="8.26171875" customWidth="1"/>
-    <col min="52" max="52" width="10.26171875" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="11.26171875" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="12.41796875" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="8.26171875" bestFit="1" customWidth="1"/>
-    <col min="56" max="57" width="9.41796875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="15.26171875" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.26171875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.41796875" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="12.68359375" bestFit="1" customWidth="1"/>
-    <col min="62" max="63" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="23.26171875" customWidth="1"/>
-    <col min="65" max="65" width="14.83984375" customWidth="1"/>
-    <col min="66" max="66" width="8.68359375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.578125" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="9.26171875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13.21875" customWidth="1"/>
+    <col min="51" max="51" width="8.21875" customWidth="1"/>
+    <col min="52" max="52" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="56" max="57" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="62" max="63" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="23.21875" customWidth="1"/>
+    <col min="65" max="65" width="14.88671875" customWidth="1"/>
+    <col min="66" max="66" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="69" max="69" width="18" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="22.68359375" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="22.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A1" s="33" t="s">
         <v>54</v>
       </c>
@@ -1885,7 +1881,7 @@
       <c r="BY1" s="32"/>
       <c r="BZ1" s="32"/>
     </row>
-    <row r="2" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -2121,7 +2117,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="3" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>197</v>
       </c>
@@ -2227,15 +2223,6 @@
       <c r="BE3">
         <v>5.4</v>
       </c>
-      <c r="BT3" t="s">
-        <v>226</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>227</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>228</v>
-      </c>
       <c r="BW3">
         <v>2.0699999999999998</v>
       </c>
@@ -2249,7 +2236,7 @@
         <v>0.73473379629629632</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>197</v>
       </c>
@@ -2347,7 +2334,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="5" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>197</v>
       </c>
@@ -2445,7 +2432,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="6" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>197</v>
       </c>
@@ -2552,7 +2539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>197</v>
       </c>
@@ -2659,7 +2646,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="8" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A8" s="25" t="s">
         <v>197</v>
       </c>
@@ -2766,7 +2753,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="9" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A9" s="25" t="s">
         <v>197</v>
       </c>
@@ -2870,7 +2857,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="10" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A10" s="25" t="s">
         <v>197</v>
       </c>
@@ -2968,7 +2955,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="11" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
         <v>197</v>
       </c>
@@ -3071,8 +3058,17 @@
       <c r="BE11">
         <v>6.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+      <c r="BT11" t="s">
+        <v>226</v>
+      </c>
+      <c r="BU11" t="s">
+        <v>227</v>
+      </c>
+      <c r="BV11" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A12" s="25" t="s">
         <v>197</v>
       </c>
@@ -3173,7 +3169,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:78" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25" t="s">
         <v>197</v>
       </c>
@@ -3277,7 +3273,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="14" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A14" s="25" t="s">
         <v>197</v>
       </c>
@@ -3378,7 +3374,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="15" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A15" s="25" t="s">
         <v>197</v>
       </c>
@@ -3479,7 +3475,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="16" spans="1:78" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:78" x14ac:dyDescent="0.3">
       <c r="A16" s="25" t="s">
         <v>197</v>
       </c>
@@ -3580,7 +3576,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
         <v>197</v>
       </c>
@@ -3678,7 +3674,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A18" s="25" t="s">
         <v>197</v>
       </c>
@@ -3692,7 +3688,7 @@
       <c r="I18" s="26"/>
       <c r="U18" s="27"/>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A19" s="25" t="s">
         <v>197</v>
       </c>
@@ -3703,7 +3699,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A20" s="25" t="s">
         <v>197</v>
       </c>
@@ -3737,14 +3733,14 @@
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="116.68359375" customWidth="1"/>
-    <col min="3" max="3" width="49.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="116.6640625" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -3755,7 +3751,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -3766,7 +3762,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -3777,7 +3773,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
         <v>2</v>
       </c>
@@ -3788,7 +3784,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -3799,7 +3795,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -3810,7 +3806,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -3821,7 +3817,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -3832,7 +3828,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -3843,7 +3839,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -3854,7 +3850,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -3865,7 +3861,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -3876,7 +3872,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -3887,7 +3883,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -3895,7 +3891,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3906,7 +3902,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -3914,7 +3910,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -3925,7 +3921,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -3933,7 +3929,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>165</v>
       </c>
@@ -3944,7 +3940,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>166</v>
       </c>
@@ -3952,7 +3948,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -3963,7 +3959,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -3974,7 +3970,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -3985,7 +3981,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>17</v>
       </c>
@@ -3996,7 +3992,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>18</v>
       </c>
@@ -4007,7 +4003,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>161</v>
       </c>
@@ -4018,7 +4014,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>162</v>
       </c>
@@ -4026,7 +4022,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -4037,7 +4033,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>23</v>
       </c>
@@ -4048,7 +4044,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -4059,7 +4055,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>25</v>
       </c>
@@ -4070,7 +4066,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>26</v>
       </c>
@@ -4081,7 +4077,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>27</v>
       </c>
@@ -4092,7 +4088,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>148</v>
       </c>
@@ -4103,7 +4099,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>159</v>
       </c>
@@ -4114,7 +4110,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>28</v>
       </c>
@@ -4125,7 +4121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -4133,7 +4129,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -4141,7 +4137,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -4149,7 +4145,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -4157,7 +4153,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -4165,7 +4161,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>167</v>
       </c>
@@ -4173,7 +4169,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>39</v>
       </c>
@@ -4181,7 +4177,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>154</v>
       </c>
@@ -4189,7 +4185,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>139</v>
       </c>
@@ -4197,7 +4193,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>140</v>
       </c>
@@ -4205,7 +4201,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -4213,7 +4209,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>150</v>
       </c>
@@ -4221,7 +4217,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>168</v>
       </c>
@@ -4229,7 +4225,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>142</v>
       </c>
@@ -4237,7 +4233,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>29</v>
       </c>
@@ -4248,7 +4244,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>30</v>
       </c>
@@ -4259,7 +4255,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>31</v>
       </c>
@@ -4270,7 +4266,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>32</v>
       </c>
@@ -4281,7 +4277,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>33</v>
       </c>
@@ -4292,7 +4288,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>151</v>
       </c>
@@ -4303,7 +4299,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>160</v>
       </c>
@@ -4314,7 +4310,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>34</v>
       </c>
@@ -4325,7 +4321,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>40</v>
       </c>
@@ -4333,7 +4329,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>41</v>
       </c>
@@ -4341,7 +4337,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -4349,7 +4345,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -4357,7 +4353,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>152</v>
       </c>
@@ -4365,7 +4361,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>163</v>
       </c>
@@ -4373,7 +4369,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>44</v>
       </c>
@@ -4381,7 +4377,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>143</v>
       </c>
@@ -4389,7 +4385,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>144</v>
       </c>
@@ -4397,7 +4393,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>145</v>
       </c>
@@ -4405,7 +4401,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>146</v>
       </c>
@@ -4413,7 +4409,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>153</v>
       </c>
@@ -4421,7 +4417,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>164</v>
       </c>
@@ -4429,7 +4425,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>147</v>
       </c>
@@ -4437,7 +4433,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>49</v>
       </c>
@@ -4448,7 +4444,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>50</v>
       </c>
@@ -4459,7 +4455,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>51</v>
       </c>
@@ -4470,7 +4466,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>52</v>
       </c>
@@ -4481,7 +4477,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>53</v>
       </c>
@@ -4492,7 +4488,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>157</v>
       </c>
@@ -4503,7 +4499,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>158</v>
       </c>
@@ -4523,21 +4519,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081A6BD0-DB1A-406D-A526-8D337C57DAFE}">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.26171875" style="25"/>
-    <col min="3" max="3" width="15.41796875" customWidth="1"/>
-    <col min="5" max="5" width="13.26171875" customWidth="1"/>
-    <col min="7" max="7" width="12.26171875" customWidth="1"/>
-    <col min="9" max="9" width="14.26171875" customWidth="1"/>
-    <col min="10" max="10" width="15.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.21875" style="25"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="37" t="s">
         <v>59</v>
       </c>
@@ -4553,7 +4549,7 @@
       <c r="K1" s="19"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="25" t="s">
         <v>0</v>
       </c>
@@ -4587,7 +4583,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>197</v>
       </c>
@@ -4616,7 +4612,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
         <v>197</v>
       </c>
@@ -4645,7 +4641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
         <v>197</v>
       </c>
@@ -4674,7 +4670,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
         <v>197</v>
       </c>
@@ -4703,7 +4699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
         <v>197</v>
       </c>
@@ -4749,14 +4745,14 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="63.578125" customWidth="1"/>
-    <col min="3" max="3" width="49.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63.5546875" customWidth="1"/>
+    <col min="3" max="3" width="49.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>135</v>
       </c>
@@ -4767,7 +4763,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -4778,7 +4774,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4789,7 +4785,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>45</v>
       </c>
@@ -4800,7 +4796,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="20" t="s">
         <v>46</v>
       </c>
@@ -4811,7 +4807,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="20" t="s">
         <v>47</v>
       </c>
@@ -4822,7 +4818,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="21" t="s">
         <v>48</v>
       </c>
@@ -4830,7 +4826,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="20" t="s">
         <v>123</v>
       </c>
@@ -4841,7 +4837,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="20" t="s">
         <v>124</v>
       </c>
@@ -4852,7 +4848,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>125</v>
       </c>
@@ -4869,6 +4865,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4877,12 +4878,49 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<SharedContentType xmlns="Microsoft.SharePoint.Taxonomy.ContentTypeSync" SourceId="29f62856-1543-49d4-a736-4569d363f533" ContentTypeId="0x0101" PreviousValue="false"/>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
+    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
+    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
+    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </j747ac98061d40f0aa7bd47e1db5675d>
+    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
+    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
+    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Creator>
+    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </EPA_x0020_Contributor>
+    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001AF5FC5DD832BE4DBA6B24560DD3ADC0" ma:contentTypeVersion="19" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d40b3e6283001fb57e5088f84fb23d5e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xmlns:ns3="http://schemas.microsoft.com/sharepoint.v3" xmlns:ns4="http://schemas.microsoft.com/sharepoint/v3/fields" xmlns:ns5="8b03727f-4454-4722-b3e6-018d8dcaf2fd" xmlns:ns6="ed970698-2d60-4bab-a048-d9be527522d9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="aadbb8160917885bdc8cfb32badaafe9" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5353,49 +5391,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Record xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">Shared</Record>
-    <Language xmlns="http://schemas.microsoft.com/sharepoint/v3">English</Language>
-    <Document_x0020_Creation_x0020_Date xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">2020-10-21T13:32:44+00:00</Document_x0020_Creation_x0020_Date>
-    <_Source xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <j747ac98061d40f0aa7bd47e1db5675d xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </j747ac98061d40f0aa7bd47e1db5675d>
-    <External_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <TaxKeywordTaxHTField xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-    <Rights xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Office xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <CategoryDescription xmlns="http://schemas.microsoft.com/sharepoint.v3" xsi:nil="true"/>
-    <Identifier xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <_Coverage xmlns="http://schemas.microsoft.com/sharepoint/v3/fields" xsi:nil="true"/>
-    <Creator xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Creator>
-    <EPA_x0020_Related_x0020_Documents xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <EPA_x0020_Contributor xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </EPA_x0020_Contributor>
-    <TaxCatchAll xmlns="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="ed970698-2d60-4bab-a048-d9be527522d9">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F4A5FCF-4499-487A-89B0-E215184C11DF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -5403,15 +5407,21 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{845EA28A-135D-4CD8-9991-40FEAFECD172}">
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="Microsoft.SharePoint.Taxonomy.ContentTypeSync"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
+    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35DBF6D9-3623-4FAC-B629-E83BF488762D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5432,18 +5442,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D26D44A-9508-4707-B138-18882E5BA6FE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4ffa91fb-a0ff-4ac5-b2db-65c790d184a4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/fields"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint.v3"/>
-    <ds:schemaRef ds:uri="ed970698-2d60-4bab-a048-d9be527522d9"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>